--- a/2022/Symphony/MARCH/14.03.2022/MC Bank Statement March-2022.xlsx
+++ b/2022/Symphony/MARCH/14.03.2022/MC Bank Statement March-2022.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="246">
   <si>
     <t>Date</t>
   </si>
@@ -793,6 +793,9 @@
   </si>
   <si>
     <t>J=Molla Mobile Center</t>
+  </si>
+  <si>
+    <t>Harun Bhai</t>
   </si>
 </sst>
 </file>
@@ -9303,6 +9306,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9319,9 +9325,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9335,8 +9338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10996,14 +10999,14 @@
         <v>240880</v>
       </c>
       <c r="C16" s="57">
-        <v>290975</v>
+        <v>280975</v>
       </c>
       <c r="D16" s="54">
         <v>1695</v>
       </c>
       <c r="E16" s="54">
         <f t="shared" si="0"/>
-        <v>292670</v>
+        <v>282670</v>
       </c>
       <c r="F16" s="243"/>
       <c r="G16" s="253"/>
@@ -12740,7 +12743,7 @@
       </c>
       <c r="C33" s="272">
         <f>SUM(C5:C32)</f>
-        <v>4082785</v>
+        <v>4072785</v>
       </c>
       <c r="D33" s="271">
         <f>SUM(D5:D32)</f>
@@ -12748,11 +12751,11 @@
       </c>
       <c r="E33" s="271">
         <f>SUM(E5:E32)</f>
-        <v>4110980</v>
+        <v>4100980</v>
       </c>
       <c r="F33" s="271">
         <f>B33-E33</f>
-        <v>123050</v>
+        <v>133050</v>
       </c>
       <c r="G33" s="273"/>
       <c r="H33" s="147"/>
@@ -22026,11 +22029,17 @@
       <c r="CS114" s="146"/>
     </row>
     <row r="115" spans="1:97">
-      <c r="A115" s="237"/>
+      <c r="A115" s="237" t="s">
+        <v>245</v>
+      </c>
       <c r="B115" s="59"/>
       <c r="C115" s="124"/>
-      <c r="D115" s="220"/>
-      <c r="E115" s="188"/>
+      <c r="D115" s="220">
+        <v>10000</v>
+      </c>
+      <c r="E115" s="188" t="s">
+        <v>239</v>
+      </c>
       <c r="F115" s="146"/>
       <c r="G115" s="146"/>
       <c r="H115" s="196"/>
@@ -22471,7 +22480,7 @@
       <c r="C119" s="346"/>
       <c r="D119" s="223">
         <f>SUM(D37:D118)</f>
-        <v>2516235</v>
+        <v>2526235</v>
       </c>
       <c r="E119" s="215"/>
       <c r="F119" s="146"/>
@@ -22678,7 +22687,7 @@
       <c r="C121" s="334"/>
       <c r="D121" s="223">
         <f>D119+M121</f>
-        <v>2516235</v>
+        <v>2526235</v>
       </c>
       <c r="E121" s="215"/>
       <c r="F121" s="146"/>
@@ -33912,8 +33921,8 @@
   </sheetPr>
   <dimension ref="A1:Y218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34090,7 +34099,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="304">
-        <v>420757.93290000036</v>
+        <v>410757.93290000036</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="276"/>
@@ -34179,7 +34188,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="256">
-        <v>2516235</v>
+        <v>2526235</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="248"/>
